--- a/PL/エフェクトリスト.xlsx
+++ b/PL/エフェクトリスト.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="86">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -294,41 +294,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>通常攻撃1</t>
-    <rPh sb="0" eb="2">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パンチが敵に当たった時に発生するエフェクト</t>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eff</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>atk</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -357,17 +327,412 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>αは既存のエフェクトで対応</t>
+    <t>EFF_list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ、キックが敵に当たった時に発生するエフェクト</t>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム攻撃時</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に撃つビームのエフェクト</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビームヒット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビーム攻撃ヒット</t>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理攻撃ヒット</t>
+    <rPh sb="0" eb="2">
+      <t>ブツリ</t>
+    </rPh>
     <rPh sb="2" eb="4">
-      <t>キゾン</t>
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビームが敵に当たった時に発生するエフェクト</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>beam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αはビーム一種類。Βでは何種類か用意</t>
+    <rPh sb="5" eb="7">
+      <t>イッシュ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ナンシュルイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あせり汗</t>
+    <rPh sb="3" eb="4">
+      <t>アセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンド入力失敗
+敵一定時間経過</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ase</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターが焦るエフェクト</t>
+    <rPh sb="7" eb="8">
+      <t>アセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクト（小）</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵爆破時</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>バクハ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が爆発するときのエフェクト（物理攻撃）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bomb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクト（中）</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が爆発するときのエフェクト（ビーム攻撃）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発エフェクト（大）</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵撃破時</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゲキハ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵が爆発するときのエフェクト（必殺攻撃）</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒッサツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>チャージエフェクト（小）</t>
+    <rPh sb="10" eb="11">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技チャージ時</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技チャージされてる際のエフェクト</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャージエフェクト（大）</t>
+    <rPh sb="10" eb="11">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必殺技を放つ際の必殺エフェクト</t>
+    <rPh sb="0" eb="3">
+      <t>ヒッサツワザ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spattack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトエフェクト1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトエフェクト2</t>
+  </si>
+  <si>
+    <t>リザルトエフェクト3</t>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面（大成功）で使用するエフェクト（イメージでき次第）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ダイセイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面（成功）で使用するエフェクト（イメージでき次第）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EFF_list</t>
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面（失敗）で使用するエフェクト（イメージでき次第）</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -505,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,12 +936,127 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -947,7 +1427,7 @@
         <v>42379</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
@@ -1103,25 +1583,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.125" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.125" customWidth="1"/>
     <col min="9" max="9" width="9" style="11"/>
-    <col min="10" max="10" width="19.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="25" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="35.5" customWidth="1"/>
     <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
@@ -1150,12 +1630,12 @@
         <v>7</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1168,8 +1648,8 @@
         <v>17</v>
       </c>
       <c r="B9" s="14">
-        <f>COUNTA(B11:B100)-COUNT(N11:N100)</f>
-        <v>1</v>
+        <f>COUNTA(B11:B99)-COUNT(N11:N99)</f>
+        <v>13</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>29</v>
@@ -1229,94 +1709,148 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>36</v>
       </c>
       <c r="J11" s="21" t="str">
         <f>E11&amp;F11&amp;G11&amp;H11&amp;I11</f>
-        <v>eff_atk_01</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>eff_hit_01</v>
+      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="19"/>
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="J12" s="21" t="str">
-        <f t="shared" ref="J12:J26" si="0">E12&amp;H12&amp;I12</f>
-        <v/>
+        <f t="shared" ref="J12:J25" si="0">E12&amp;F12&amp;G12&amp;H12&amp;I12</f>
+        <v>eff_hit_02</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="19"/>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="J13" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K13" s="3"/>
+        <v>eff_beam_01</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="19"/>
+    <row r="14" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="J14" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_ase_01</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1324,18 +1858,36 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="19"/>
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="J15" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_bomb_01</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1343,18 +1895,36 @@
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="19"/>
+      <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="J16" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_bomb_02</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1362,18 +1932,36 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="19"/>
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="J17" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_bomb_03</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1381,18 +1969,36 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="19"/>
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="J18" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_charge_01</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1400,18 +2006,36 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="19"/>
+      <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_charge_02</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -1419,18 +2043,36 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="19"/>
+      <c r="A20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="J20" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_spattack_01</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -1438,18 +2080,36 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="19"/>
+      <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="J21" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_result_01</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -1457,18 +2117,36 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="19"/>
+      <c r="A22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="J22" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_result_02</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -1476,18 +2154,36 @@
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="19"/>
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="J23" s="21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>eff_result_03</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -1532,40 +2228,11 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
   </sheetData>
   <autoFilter ref="A10:N10"/>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A11:E26 H11:N26">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$N11=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G26">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$N11=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F26">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A11:N25">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$N11=1</formula>
     </cfRule>
   </conditionalFormatting>
